--- a/Data/Processed/Angiosperms/missing_powo_ipni/Icacinaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Icacinaceae.xlsx
@@ -817,7 +817,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ann. Mag. Nat. Hist. ser. 3, 9(50): 115. 1862 [Feb 1862] </t>
+          <t>Ann. Mag. Nat. Hist. ser. 3, 9(50): 115. 1862 [Feb 1862]</t>
         </is>
       </c>
       <c r="J8" t="b">
